--- a/biology/Botanique/François_Guillot_(rose)/François_Guillot_(rose).xlsx
+++ b/biology/Botanique/François_Guillot_(rose)/François_Guillot_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Guillot_(rose)</t>
+          <t>François_Guillot_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'François Guillot' est un cultivar de rosier grimpant obtenu en 1905[1] et mis au commerce en 1907 par le rosiériste orléanais Barbier. Il est issu d'un croisement Rosa wichuraiana x 'Madame Laurette Messimy'[2] (Guillot, 1887).
+'François Guillot' est un cultivar de rosier grimpant obtenu en 1905 et mis au commerce en 1907 par le rosiériste orléanais Barbier. Il est issu d'un croisement Rosa wichuraiana x 'Madame Laurette Messimy' (Guillot, 1887).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Guillot_(rose)</t>
+          <t>François_Guillot_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson aux ramures puissantes et au feuillage abondant, vert sombre et légèrement luisant[3], s'élevant à plus de 4 mètres[4]. Ses fleurs semi-doubles ou doubles mesurant 10 cm montrent un cœur aux nuances jaunes;  elles sont parfumées et d'un beau blanc ivoire et laissent voir leurs étamines. Elles fleurissent en petites grappes retombant souplement. La floraison n'est pas remontante. Vigoureux et rustique, il résiste à des températures de -15° à -20°[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson aux ramures puissantes et au feuillage abondant, vert sombre et légèrement luisant, s'élevant à plus de 4 mètres. Ses fleurs semi-doubles ou doubles mesurant 10 cm montrent un cœur aux nuances jaunes;  elles sont parfumées et d'un beau blanc ivoire et laissent voir leurs étamines. Elles fleurissent en petites grappes retombant souplement. La floraison n'est pas remontante. Vigoureux et rustique, il résiste à des températures de -15° à -20°.
 Ce rosier grimpant est parfait pour les pergolas, les piliers ou les arceaux.
 </t>
         </is>
